--- a/Laporan_In_Out_Masjid_Al_Multajam_2023.xlsx
+++ b/Laporan_In_Out_Masjid_Al_Multajam_2023.xlsx
@@ -1851,7 +1851,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="12">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$Rp-421]#,##0.00;[RED]\([$Rp-421]#,##0.00\)"/>
     <numFmt numFmtId="166" formatCode="[$-421]d\ mmmm\ yyyy"/>
@@ -1863,7 +1863,6 @@
     <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="173" formatCode="_([$IDR]\ * #,##0.00_);_([$IDR]\ * \(#,##0.00\);_([$IDR]\ * \-??_);_(@_)"/>
     <numFmt numFmtId="174" formatCode="0"/>
-    <numFmt numFmtId="175" formatCode="[$Rp-421]#,##0.00;[RED]\-[$Rp-421]#,##0.00"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -2089,7 +2088,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2390,10 +2389,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="174" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2414,7 +2409,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -13309,7 +13304,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13380,7 +13375,7 @@
       <c r="B7" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="72" t="s">
         <v>325</v>
       </c>
       <c r="D7" s="72" t="s">
@@ -13396,14 +13391,14 @@
         <f aca="false">IF(F7&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H7" s="76"/>
+      <c r="H7" s="75"/>
       <c r="I7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="74" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="72" t="s">
         <v>327</v>
       </c>
       <c r="D8" s="72" t="s">
@@ -13419,14 +13414,14 @@
         <f aca="false">IF(F8&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H8" s="76"/>
+      <c r="H8" s="75"/>
       <c r="I8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="72" t="s">
         <v>328</v>
       </c>
       <c r="D9" s="72" t="s">
@@ -13442,14 +13437,14 @@
         <f aca="false">IF(F9&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H9" s="76"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="72" t="s">
         <v>329</v>
       </c>
       <c r="D10" s="72" t="s">
@@ -13465,7 +13460,7 @@
         <f aca="false">IF(F10&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H10" s="76" t="s">
+      <c r="H10" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I10" s="10"/>
@@ -13474,7 +13469,7 @@
       <c r="B11" s="74" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="72" t="s">
         <v>331</v>
       </c>
       <c r="D11" s="72" t="s">
@@ -13490,14 +13485,14 @@
         <f aca="false">IF(F11&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H11" s="76"/>
+      <c r="H11" s="75"/>
       <c r="I11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="74" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="72" t="s">
         <v>332</v>
       </c>
       <c r="D12" s="72" t="s">
@@ -13513,14 +13508,14 @@
         <f aca="false">IF(F12&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H12" s="76"/>
+      <c r="H12" s="75"/>
       <c r="I12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="74" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="72" t="s">
         <v>333</v>
       </c>
       <c r="D13" s="72" t="s">
@@ -13536,14 +13531,14 @@
         <f aca="false">IF(F13&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H13" s="76"/>
+      <c r="H13" s="75"/>
       <c r="I13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="74" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="72" t="s">
         <v>334</v>
       </c>
       <c r="D14" s="72" t="s">
@@ -13559,7 +13554,7 @@
         <f aca="false">IF(F14&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H14" s="76" t="s">
+      <c r="H14" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I14" s="10"/>
@@ -13568,7 +13563,7 @@
       <c r="B15" s="74" t="n">
         <v>9</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="72" t="s">
         <v>335</v>
       </c>
       <c r="D15" s="72" t="s">
@@ -13584,7 +13579,7 @@
         <f aca="false">IF(F15&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I15" s="10"/>
@@ -13593,7 +13588,7 @@
       <c r="B16" s="74" t="n">
         <v>10</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="72" t="s">
         <v>336</v>
       </c>
       <c r="D16" s="72" t="s">
@@ -13609,14 +13604,14 @@
         <f aca="false">IF(F16&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H16" s="76"/>
+      <c r="H16" s="75"/>
       <c r="I16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="74" t="n">
         <v>11</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="72" t="s">
         <v>337</v>
       </c>
       <c r="D17" s="72" t="s">
@@ -13632,14 +13627,14 @@
         <f aca="false">IF(F17&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H17" s="76"/>
+      <c r="H17" s="75"/>
       <c r="I17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="74" t="n">
         <v>12</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="72" t="s">
         <v>338</v>
       </c>
       <c r="D18" s="72" t="s">
@@ -13655,14 +13650,14 @@
         <f aca="false">IF(F18&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H18" s="76"/>
+      <c r="H18" s="75"/>
       <c r="I18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="74" t="n">
         <v>13</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="72" t="s">
         <v>339</v>
       </c>
       <c r="D19" s="72" t="s">
@@ -13678,14 +13673,14 @@
         <f aca="false">IF(F19&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H19" s="76"/>
+      <c r="H19" s="75"/>
       <c r="I19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="74" t="n">
         <v>14</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="72" t="s">
         <v>340</v>
       </c>
       <c r="D20" s="72" t="s">
@@ -13701,14 +13696,14 @@
         <f aca="false">IF(F20&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H20" s="76"/>
+      <c r="H20" s="75"/>
       <c r="I20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="74" t="n">
         <v>15</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="72" t="s">
         <v>341</v>
       </c>
       <c r="D21" s="72" t="s">
@@ -13724,14 +13719,14 @@
         <f aca="false">IF(F21&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H21" s="76"/>
+      <c r="H21" s="75"/>
       <c r="I21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="74" t="n">
         <v>16</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="72" t="s">
         <v>342</v>
       </c>
       <c r="D22" s="72" t="s">
@@ -13747,14 +13742,14 @@
         <f aca="false">IF(F22&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H22" s="76"/>
+      <c r="H22" s="75"/>
       <c r="I22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="74" t="n">
         <v>17</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="72" t="s">
         <v>344</v>
       </c>
       <c r="D23" s="72" t="s">
@@ -13770,7 +13765,7 @@
         <f aca="false">IF(F23&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H23" s="76" t="s">
+      <c r="H23" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I23" s="10"/>
@@ -13779,7 +13774,7 @@
       <c r="B24" s="74" t="n">
         <v>18</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="72" t="s">
         <v>345</v>
       </c>
       <c r="D24" s="72" t="s">
@@ -13795,14 +13790,14 @@
         <f aca="false">IF(F24&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H24" s="76"/>
+      <c r="H24" s="75"/>
       <c r="I24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="74" t="n">
         <v>19</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="72" t="s">
         <v>346</v>
       </c>
       <c r="D25" s="72" t="s">
@@ -13818,14 +13813,14 @@
         <f aca="false">IF(F25&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H25" s="76"/>
+      <c r="H25" s="75"/>
       <c r="I25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="74" t="n">
         <v>20</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="72" t="s">
         <v>347</v>
       </c>
       <c r="D26" s="72" t="s">
@@ -13835,13 +13830,13 @@
         <v>6</v>
       </c>
       <c r="F26" s="73" t="n">
-        <v>800000</v>
+        <v>700000</v>
       </c>
       <c r="G26" s="10" t="str">
         <f aca="false">IF(F26&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H26" s="76" t="s">
+      <c r="H26" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I26" s="10"/>
@@ -13850,7 +13845,7 @@
       <c r="B27" s="74" t="n">
         <v>21</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="72" t="s">
         <v>348</v>
       </c>
       <c r="D27" s="72" t="s">
@@ -13866,7 +13861,7 @@
         <f aca="false">IF(F27&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H27" s="76" t="s">
+      <c r="H27" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I27" s="10"/>
@@ -13875,7 +13870,7 @@
       <c r="B28" s="74" t="n">
         <v>22</v>
       </c>
-      <c r="C28" s="75" t="s">
+      <c r="C28" s="72" t="s">
         <v>349</v>
       </c>
       <c r="D28" s="72" t="s">
@@ -13891,7 +13886,7 @@
         <f aca="false">IF(F28&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H28" s="76" t="s">
+      <c r="H28" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I28" s="10"/>
@@ -13900,7 +13895,7 @@
       <c r="B29" s="74" t="n">
         <v>23</v>
       </c>
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="72" t="s">
         <v>350</v>
       </c>
       <c r="D29" s="72" t="s">
@@ -13916,7 +13911,7 @@
         <f aca="false">IF(F29&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H29" s="76" t="s">
+      <c r="H29" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I29" s="10"/>
@@ -13925,7 +13920,7 @@
       <c r="B30" s="74" t="n">
         <v>24</v>
       </c>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="72" t="s">
         <v>351</v>
       </c>
       <c r="D30" s="72" t="s">
@@ -13941,14 +13936,14 @@
         <f aca="false">IF(F30&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H30" s="76"/>
+      <c r="H30" s="75"/>
       <c r="I30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="74" t="n">
         <v>25</v>
       </c>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="72" t="s">
         <v>352</v>
       </c>
       <c r="D31" s="72" t="s">
@@ -13964,14 +13959,14 @@
         <f aca="false">IF(F31&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H31" s="76"/>
+      <c r="H31" s="75"/>
       <c r="I31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="74" t="n">
         <v>26</v>
       </c>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="72" t="s">
         <v>353</v>
       </c>
       <c r="D32" s="72" t="s">
@@ -13987,14 +13982,14 @@
         <f aca="false">IF(F32&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H32" s="76"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="74" t="n">
         <v>27</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="72" t="s">
         <v>354</v>
       </c>
       <c r="D33" s="72" t="s">
@@ -14010,14 +14005,14 @@
         <f aca="false">IF(F33&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H33" s="76"/>
+      <c r="H33" s="75"/>
       <c r="I33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="74" t="n">
         <v>28</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="72" t="s">
         <v>355</v>
       </c>
       <c r="D34" s="72" t="s">
@@ -14033,7 +14028,7 @@
         <f aca="false">IF(F34&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H34" s="76" t="s">
+      <c r="H34" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I34" s="10"/>
@@ -14042,7 +14037,7 @@
       <c r="B35" s="74" t="n">
         <v>29</v>
       </c>
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="72" t="s">
         <v>357</v>
       </c>
       <c r="D35" s="72" t="s">
@@ -14058,14 +14053,14 @@
         <f aca="false">IF(F35&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H35" s="76"/>
+      <c r="H35" s="75"/>
       <c r="I35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="74" t="n">
         <v>30</v>
       </c>
-      <c r="C36" s="75" t="s">
+      <c r="C36" s="72" t="s">
         <v>358</v>
       </c>
       <c r="D36" s="72" t="s">
@@ -14081,14 +14076,14 @@
         <f aca="false">IF(F36&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H36" s="76"/>
+      <c r="H36" s="75"/>
       <c r="I36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="74" t="n">
         <v>31</v>
       </c>
-      <c r="C37" s="75" t="s">
+      <c r="C37" s="72" t="s">
         <v>359</v>
       </c>
       <c r="D37" s="72" t="s">
@@ -14104,7 +14099,7 @@
         <f aca="false">IF(F37&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H37" s="76" t="s">
+      <c r="H37" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I37" s="10"/>
@@ -14113,7 +14108,7 @@
       <c r="B38" s="74" t="n">
         <v>32</v>
       </c>
-      <c r="C38" s="75" t="s">
+      <c r="C38" s="72" t="s">
         <v>360</v>
       </c>
       <c r="D38" s="72" t="s">
@@ -14129,14 +14124,14 @@
         <f aca="false">IF(F38&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H38" s="76"/>
+      <c r="H38" s="75"/>
       <c r="I38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="74" t="n">
         <v>33</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="72" t="s">
         <v>361</v>
       </c>
       <c r="D39" s="72" t="s">
@@ -14152,14 +14147,14 @@
         <f aca="false">IF(F39&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H39" s="76"/>
+      <c r="H39" s="75"/>
       <c r="I39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="74" t="n">
         <v>34</v>
       </c>
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="72" t="s">
         <v>362</v>
       </c>
       <c r="D40" s="72" t="s">
@@ -14175,14 +14170,14 @@
         <f aca="false">IF(F40&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H40" s="76"/>
+      <c r="H40" s="75"/>
       <c r="I40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="74" t="n">
         <v>35</v>
       </c>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="72" t="s">
         <v>363</v>
       </c>
       <c r="D41" s="72" t="s">
@@ -14198,14 +14193,14 @@
         <f aca="false">IF(F41&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H41" s="76"/>
+      <c r="H41" s="75"/>
       <c r="I41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="74" t="n">
         <v>36</v>
       </c>
-      <c r="C42" s="75" t="s">
+      <c r="C42" s="72" t="s">
         <v>364</v>
       </c>
       <c r="D42" s="72" t="s">
@@ -14221,7 +14216,7 @@
         <f aca="false">IF(F42&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H42" s="76" t="s">
+      <c r="H42" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I42" s="10"/>
@@ -14230,7 +14225,7 @@
       <c r="B43" s="74" t="n">
         <v>37</v>
       </c>
-      <c r="C43" s="75" t="s">
+      <c r="C43" s="72" t="s">
         <v>365</v>
       </c>
       <c r="D43" s="72" t="s">
@@ -14246,14 +14241,14 @@
         <f aca="false">IF(F43&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H43" s="76"/>
+      <c r="H43" s="75"/>
       <c r="I43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="74" t="n">
         <v>38</v>
       </c>
-      <c r="C44" s="75" t="s">
+      <c r="C44" s="72" t="s">
         <v>366</v>
       </c>
       <c r="D44" s="72" t="s">
@@ -14269,14 +14264,14 @@
         <f aca="false">IF(F44&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H44" s="76"/>
+      <c r="H44" s="75"/>
       <c r="I44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="74" t="n">
         <v>39</v>
       </c>
-      <c r="C45" s="75" t="s">
+      <c r="C45" s="72" t="s">
         <v>367</v>
       </c>
       <c r="D45" s="72" t="s">
@@ -14292,14 +14287,14 @@
         <f aca="false">IF(F45&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H45" s="76"/>
+      <c r="H45" s="75"/>
       <c r="I45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="74" t="n">
         <v>40</v>
       </c>
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="72" t="s">
         <v>368</v>
       </c>
       <c r="D46" s="72" t="s">
@@ -14315,14 +14310,14 @@
         <f aca="false">IF(F46&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H46" s="76"/>
+      <c r="H46" s="75"/>
       <c r="I46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="74" t="n">
         <v>41</v>
       </c>
-      <c r="C47" s="75" t="s">
+      <c r="C47" s="72" t="s">
         <v>369</v>
       </c>
       <c r="D47" s="72" t="s">
@@ -14338,7 +14333,7 @@
         <f aca="false">IF(F47&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H47" s="76" t="s">
+      <c r="H47" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I47" s="10"/>
@@ -14347,7 +14342,7 @@
       <c r="B48" s="74" t="n">
         <v>42</v>
       </c>
-      <c r="C48" s="75" t="s">
+      <c r="C48" s="72" t="s">
         <v>371</v>
       </c>
       <c r="D48" s="72" t="s">
@@ -14363,7 +14358,7 @@
         <f aca="false">IF(F48&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H48" s="76" t="s">
+      <c r="H48" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I48" s="10"/>
@@ -14372,7 +14367,7 @@
       <c r="B49" s="74" t="n">
         <v>43</v>
       </c>
-      <c r="C49" s="75" t="s">
+      <c r="C49" s="72" t="s">
         <v>372</v>
       </c>
       <c r="D49" s="72" t="s">
@@ -14388,7 +14383,7 @@
         <f aca="false">IF(F49&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H49" s="76" t="s">
+      <c r="H49" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I49" s="10"/>
@@ -14397,7 +14392,7 @@
       <c r="B50" s="74" t="n">
         <v>44</v>
       </c>
-      <c r="C50" s="75" t="s">
+      <c r="C50" s="72" t="s">
         <v>373</v>
       </c>
       <c r="D50" s="72" t="s">
@@ -14413,7 +14408,7 @@
         <f aca="false">IF(F50&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H50" s="76" t="s">
+      <c r="H50" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I50" s="10"/>
@@ -14422,7 +14417,7 @@
       <c r="B51" s="74" t="n">
         <v>45</v>
       </c>
-      <c r="C51" s="75" t="s">
+      <c r="C51" s="72" t="s">
         <v>374</v>
       </c>
       <c r="D51" s="72" t="s">
@@ -14438,7 +14433,7 @@
         <f aca="false">IF(F51&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H51" s="76" t="s">
+      <c r="H51" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I51" s="10"/>
@@ -14447,7 +14442,7 @@
       <c r="B52" s="74" t="n">
         <v>46</v>
       </c>
-      <c r="C52" s="75" t="s">
+      <c r="C52" s="72" t="s">
         <v>375</v>
       </c>
       <c r="D52" s="72" t="s">
@@ -14463,14 +14458,14 @@
         <f aca="false">IF(F52&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H52" s="76"/>
+      <c r="H52" s="75"/>
       <c r="I52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="74" t="n">
         <v>47</v>
       </c>
-      <c r="C53" s="75" t="s">
+      <c r="C53" s="72" t="s">
         <v>376</v>
       </c>
       <c r="D53" s="72" t="s">
@@ -14486,14 +14481,14 @@
         <f aca="false">IF(F53&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H53" s="76"/>
+      <c r="H53" s="75"/>
       <c r="I53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="74" t="n">
         <v>48</v>
       </c>
-      <c r="C54" s="75" t="s">
+      <c r="C54" s="72" t="s">
         <v>377</v>
       </c>
       <c r="D54" s="72" t="s">
@@ -14509,7 +14504,7 @@
         <f aca="false">IF(F54&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H54" s="76" t="s">
+      <c r="H54" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I54" s="10"/>
@@ -14518,7 +14513,7 @@
       <c r="B55" s="74" t="n">
         <v>49</v>
       </c>
-      <c r="C55" s="75" t="s">
+      <c r="C55" s="72" t="s">
         <v>378</v>
       </c>
       <c r="D55" s="72" t="s">
@@ -14534,7 +14529,7 @@
         <f aca="false">IF(F55&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H55" s="76" t="s">
+      <c r="H55" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I55" s="10"/>
@@ -14543,7 +14538,7 @@
       <c r="B56" s="74" t="n">
         <v>50</v>
       </c>
-      <c r="C56" s="75" t="s">
+      <c r="C56" s="72" t="s">
         <v>379</v>
       </c>
       <c r="D56" s="72" t="s">
@@ -14559,7 +14554,7 @@
         <f aca="false">IF(F56&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H56" s="76" t="s">
+      <c r="H56" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I56" s="10"/>
@@ -14568,7 +14563,7 @@
       <c r="B57" s="74" t="n">
         <v>51</v>
       </c>
-      <c r="C57" s="75" t="s">
+      <c r="C57" s="72" t="s">
         <v>380</v>
       </c>
       <c r="D57" s="72" t="s">
@@ -14584,14 +14579,14 @@
         <f aca="false">IF(F57&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H57" s="76"/>
+      <c r="H57" s="75"/>
       <c r="I57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="74" t="n">
         <v>52</v>
       </c>
-      <c r="C58" s="75" t="s">
+      <c r="C58" s="72" t="s">
         <v>381</v>
       </c>
       <c r="D58" s="72" t="s">
@@ -14607,14 +14602,14 @@
         <f aca="false">IF(F58&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H58" s="76"/>
+      <c r="H58" s="75"/>
       <c r="I58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="74" t="n">
         <v>53</v>
       </c>
-      <c r="C59" s="75" t="s">
+      <c r="C59" s="72" t="s">
         <v>382</v>
       </c>
       <c r="D59" s="72" t="s">
@@ -14630,14 +14625,14 @@
         <f aca="false">IF(F59&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H59" s="76"/>
+      <c r="H59" s="75"/>
       <c r="I59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="74" t="n">
         <v>54</v>
       </c>
-      <c r="C60" s="75" t="s">
+      <c r="C60" s="72" t="s">
         <v>383</v>
       </c>
       <c r="D60" s="72" t="s">
@@ -14653,14 +14648,14 @@
         <f aca="false">IF(F60&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H60" s="76"/>
+      <c r="H60" s="75"/>
       <c r="I60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="74" t="n">
         <v>55</v>
       </c>
-      <c r="C61" s="75" t="s">
+      <c r="C61" s="72" t="s">
         <v>385</v>
       </c>
       <c r="D61" s="72" t="s">
@@ -14676,7 +14671,7 @@
         <f aca="false">IF(F61&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H61" s="76" t="s">
+      <c r="H61" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I61" s="10"/>
@@ -14685,7 +14680,7 @@
       <c r="B62" s="74" t="n">
         <v>56</v>
       </c>
-      <c r="C62" s="75" t="s">
+      <c r="C62" s="72" t="s">
         <v>386</v>
       </c>
       <c r="D62" s="72" t="s">
@@ -14701,14 +14696,14 @@
         <f aca="false">IF(F62&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H62" s="76"/>
+      <c r="H62" s="75"/>
       <c r="I62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="74" t="n">
         <v>57</v>
       </c>
-      <c r="C63" s="75" t="s">
+      <c r="C63" s="72" t="s">
         <v>388</v>
       </c>
       <c r="D63" s="72" t="s">
@@ -14724,14 +14719,14 @@
         <f aca="false">IF(F63&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H63" s="76"/>
+      <c r="H63" s="75"/>
       <c r="I63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="74" t="n">
         <v>58</v>
       </c>
-      <c r="C64" s="75" t="s">
+      <c r="C64" s="72" t="s">
         <v>389</v>
       </c>
       <c r="D64" s="72" t="s">
@@ -14747,7 +14742,7 @@
         <f aca="false">IF(F64&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H64" s="76" t="s">
+      <c r="H64" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I64" s="10"/>
@@ -14756,7 +14751,7 @@
       <c r="B65" s="74" t="n">
         <v>59</v>
       </c>
-      <c r="C65" s="75" t="s">
+      <c r="C65" s="72" t="s">
         <v>390</v>
       </c>
       <c r="D65" s="72" t="s">
@@ -14772,7 +14767,7 @@
         <f aca="false">IF(F65&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H65" s="76" t="s">
+      <c r="H65" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I65" s="10"/>
@@ -14781,7 +14776,7 @@
       <c r="B66" s="74" t="n">
         <v>60</v>
       </c>
-      <c r="C66" s="75" t="s">
+      <c r="C66" s="72" t="s">
         <v>392</v>
       </c>
       <c r="D66" s="72" t="s">
@@ -14797,7 +14792,7 @@
         <f aca="false">IF(F66&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H66" s="76" t="s">
+      <c r="H66" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I66" s="10"/>
@@ -14806,7 +14801,7 @@
       <c r="B67" s="74" t="n">
         <v>61</v>
       </c>
-      <c r="C67" s="75" t="s">
+      <c r="C67" s="72" t="s">
         <v>393</v>
       </c>
       <c r="D67" s="72" t="s">
@@ -14822,7 +14817,7 @@
         <f aca="false">IF(F67&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H67" s="76" t="s">
+      <c r="H67" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I67" s="10"/>
@@ -14831,7 +14826,7 @@
       <c r="B68" s="74" t="n">
         <v>62</v>
       </c>
-      <c r="C68" s="75" t="s">
+      <c r="C68" s="72" t="s">
         <v>394</v>
       </c>
       <c r="D68" s="72" t="s">
@@ -14847,7 +14842,7 @@
         <f aca="false">IF(F68&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H68" s="76" t="s">
+      <c r="H68" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I68" s="10"/>
@@ -14856,7 +14851,7 @@
       <c r="B69" s="74" t="n">
         <v>63</v>
       </c>
-      <c r="C69" s="75" t="s">
+      <c r="C69" s="72" t="s">
         <v>395</v>
       </c>
       <c r="D69" s="72" t="s">
@@ -14872,7 +14867,7 @@
         <f aca="false">IF(F69&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H69" s="76" t="s">
+      <c r="H69" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I69" s="10"/>
@@ -14881,7 +14876,7 @@
       <c r="B70" s="74" t="n">
         <v>64</v>
       </c>
-      <c r="C70" s="75" t="s">
+      <c r="C70" s="72" t="s">
         <v>396</v>
       </c>
       <c r="D70" s="72" t="s">
@@ -14897,7 +14892,7 @@
         <f aca="false">IF(F70&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H70" s="76" t="s">
+      <c r="H70" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I70" s="10"/>
@@ -14906,7 +14901,7 @@
       <c r="B71" s="74" t="n">
         <v>65</v>
       </c>
-      <c r="C71" s="75" t="s">
+      <c r="C71" s="72" t="s">
         <v>398</v>
       </c>
       <c r="D71" s="72" t="s">
@@ -14922,7 +14917,7 @@
         <f aca="false">IF(F71&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H71" s="76"/>
+      <c r="H71" s="75"/>
       <c r="I71" s="10" t="s">
         <v>399</v>
       </c>
@@ -14931,7 +14926,7 @@
       <c r="B72" s="74" t="n">
         <v>66</v>
       </c>
-      <c r="C72" s="75" t="s">
+      <c r="C72" s="72" t="s">
         <v>400</v>
       </c>
       <c r="D72" s="72" t="s">
@@ -14947,7 +14942,7 @@
         <f aca="false">IF(F72&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H72" s="76" t="s">
+      <c r="H72" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I72" s="10"/>
@@ -14956,7 +14951,7 @@
       <c r="B73" s="74" t="n">
         <v>67</v>
       </c>
-      <c r="C73" s="75" t="s">
+      <c r="C73" s="72" t="s">
         <v>401</v>
       </c>
       <c r="D73" s="72" t="s">
@@ -14972,14 +14967,14 @@
         <f aca="false">IF(F73&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H73" s="76"/>
+      <c r="H73" s="75"/>
       <c r="I73" s="10"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="74" t="n">
         <v>68</v>
       </c>
-      <c r="C74" s="75" t="s">
+      <c r="C74" s="72" t="s">
         <v>402</v>
       </c>
       <c r="D74" s="72" t="s">
@@ -14995,14 +14990,14 @@
         <f aca="false">IF(F74&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H74" s="76"/>
+      <c r="H74" s="75"/>
       <c r="I74" s="10"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="74" t="n">
         <v>69</v>
       </c>
-      <c r="C75" s="75" t="s">
+      <c r="C75" s="72" t="s">
         <v>403</v>
       </c>
       <c r="D75" s="72" t="s">
@@ -15018,14 +15013,14 @@
         <f aca="false">IF(F75&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H75" s="76"/>
+      <c r="H75" s="75"/>
       <c r="I75" s="10"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="74" t="n">
         <v>70</v>
       </c>
-      <c r="C76" s="75" t="s">
+      <c r="C76" s="72" t="s">
         <v>404</v>
       </c>
       <c r="D76" s="72" t="s">
@@ -15041,14 +15036,14 @@
         <f aca="false">IF(F76&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H76" s="76"/>
+      <c r="H76" s="75"/>
       <c r="I76" s="10"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="74" t="n">
         <v>71</v>
       </c>
-      <c r="C77" s="75" t="s">
+      <c r="C77" s="72" t="s">
         <v>405</v>
       </c>
       <c r="D77" s="72" t="s">
@@ -15064,14 +15059,14 @@
         <f aca="false">IF(F77&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H77" s="76"/>
+      <c r="H77" s="75"/>
       <c r="I77" s="10"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="74" t="n">
         <v>72</v>
       </c>
-      <c r="C78" s="75" t="s">
+      <c r="C78" s="72" t="s">
         <v>406</v>
       </c>
       <c r="D78" s="72" t="s">
@@ -15087,14 +15082,14 @@
         <f aca="false">IF(F78&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H78" s="76"/>
+      <c r="H78" s="75"/>
       <c r="I78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="74" t="n">
         <v>73</v>
       </c>
-      <c r="C79" s="75" t="s">
+      <c r="C79" s="72" t="s">
         <v>408</v>
       </c>
       <c r="D79" s="72" t="s">
@@ -15110,14 +15105,14 @@
         <f aca="false">IF(F79&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H79" s="76"/>
+      <c r="H79" s="75"/>
       <c r="I79" s="10"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="74" t="n">
         <v>74</v>
       </c>
-      <c r="C80" s="75" t="s">
+      <c r="C80" s="72" t="s">
         <v>409</v>
       </c>
       <c r="D80" s="72" t="s">
@@ -15133,14 +15128,14 @@
         <f aca="false">IF(F80&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H80" s="76"/>
+      <c r="H80" s="75"/>
       <c r="I80" s="10"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="74" t="n">
         <v>75</v>
       </c>
-      <c r="C81" s="75" t="s">
+      <c r="C81" s="72" t="s">
         <v>410</v>
       </c>
       <c r="D81" s="72" t="s">
@@ -15156,7 +15151,7 @@
         <f aca="false">IF(F81&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H81" s="76"/>
+      <c r="H81" s="75"/>
       <c r="I81" s="10" t="s">
         <v>411</v>
       </c>
@@ -15165,7 +15160,7 @@
       <c r="B82" s="74" t="n">
         <v>76</v>
       </c>
-      <c r="C82" s="75" t="s">
+      <c r="C82" s="72" t="s">
         <v>412</v>
       </c>
       <c r="D82" s="72" t="s">
@@ -15181,14 +15176,14 @@
         <f aca="false">IF(F82&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H82" s="76"/>
+      <c r="H82" s="75"/>
       <c r="I82" s="10"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="74" t="n">
         <v>77</v>
       </c>
-      <c r="C83" s="75" t="s">
+      <c r="C83" s="72" t="s">
         <v>413</v>
       </c>
       <c r="D83" s="72" t="s">
@@ -15204,14 +15199,14 @@
         <f aca="false">IF(F83&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H83" s="76"/>
+      <c r="H83" s="75"/>
       <c r="I83" s="10"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="74" t="n">
         <v>78</v>
       </c>
-      <c r="C84" s="75" t="s">
+      <c r="C84" s="72" t="s">
         <v>415</v>
       </c>
       <c r="D84" s="72" t="s">
@@ -15227,14 +15222,14 @@
         <f aca="false">IF(F84&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H84" s="76"/>
+      <c r="H84" s="75"/>
       <c r="I84" s="10"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="74" t="n">
         <v>79</v>
       </c>
-      <c r="C85" s="75" t="s">
+      <c r="C85" s="72" t="s">
         <v>416</v>
       </c>
       <c r="D85" s="72" t="s">
@@ -15250,14 +15245,14 @@
         <f aca="false">IF(F85&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H85" s="76"/>
+      <c r="H85" s="75"/>
       <c r="I85" s="10"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="74" t="n">
         <v>80</v>
       </c>
-      <c r="C86" s="75" t="s">
+      <c r="C86" s="72" t="s">
         <v>417</v>
       </c>
       <c r="D86" s="72" t="s">
@@ -15273,14 +15268,14 @@
         <f aca="false">IF(F86&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H86" s="76"/>
+      <c r="H86" s="75"/>
       <c r="I86" s="10"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="74" t="n">
         <v>81</v>
       </c>
-      <c r="C87" s="75" t="s">
+      <c r="C87" s="72" t="s">
         <v>418</v>
       </c>
       <c r="D87" s="72" t="s">
@@ -15296,14 +15291,14 @@
         <f aca="false">IF(F87&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H87" s="76"/>
+      <c r="H87" s="75"/>
       <c r="I87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="74" t="n">
         <v>82</v>
       </c>
-      <c r="C88" s="75" t="s">
+      <c r="C88" s="72" t="s">
         <v>419</v>
       </c>
       <c r="D88" s="72" t="s">
@@ -15319,14 +15314,14 @@
         <f aca="false">IF(F88&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H88" s="76"/>
+      <c r="H88" s="75"/>
       <c r="I88" s="10"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="74" t="n">
         <v>83</v>
       </c>
-      <c r="C89" s="75" t="s">
+      <c r="C89" s="72" t="s">
         <v>420</v>
       </c>
       <c r="D89" s="72" t="s">
@@ -15342,7 +15337,7 @@
         <f aca="false">IF(F89&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H89" s="76"/>
+      <c r="H89" s="75"/>
       <c r="I89" s="10" t="s">
         <v>421</v>
       </c>
@@ -15351,7 +15346,7 @@
       <c r="B90" s="74" t="n">
         <v>84</v>
       </c>
-      <c r="C90" s="75" t="s">
+      <c r="C90" s="72" t="s">
         <v>422</v>
       </c>
       <c r="D90" s="72" t="s">
@@ -15367,14 +15362,14 @@
         <f aca="false">IF(F90&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H90" s="76"/>
+      <c r="H90" s="75"/>
       <c r="I90" s="10"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="74" t="n">
         <v>85</v>
       </c>
-      <c r="C91" s="75" t="s">
+      <c r="C91" s="72" t="s">
         <v>423</v>
       </c>
       <c r="D91" s="72" t="s">
@@ -15390,7 +15385,7 @@
         <f aca="false">IF(F91&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H91" s="76"/>
+      <c r="H91" s="75"/>
       <c r="I91" s="10" t="s">
         <v>424</v>
       </c>
@@ -15399,7 +15394,7 @@
       <c r="B92" s="74" t="n">
         <v>86</v>
       </c>
-      <c r="C92" s="75" t="s">
+      <c r="C92" s="72" t="s">
         <v>425</v>
       </c>
       <c r="D92" s="72" t="s">
@@ -15415,14 +15410,14 @@
         <f aca="false">IF(F92&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H92" s="76"/>
+      <c r="H92" s="75"/>
       <c r="I92" s="10"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="74" t="n">
         <v>87</v>
       </c>
-      <c r="C93" s="75" t="s">
+      <c r="C93" s="72" t="s">
         <v>426</v>
       </c>
       <c r="D93" s="72" t="s">
@@ -15438,14 +15433,14 @@
         <f aca="false">IF(F93&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H93" s="76"/>
+      <c r="H93" s="75"/>
       <c r="I93" s="10"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="74" t="n">
         <v>88</v>
       </c>
-      <c r="C94" s="75" t="s">
+      <c r="C94" s="72" t="s">
         <v>427</v>
       </c>
       <c r="D94" s="72" t="s">
@@ -15461,14 +15456,14 @@
         <f aca="false">IF(F94&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H94" s="76"/>
+      <c r="H94" s="75"/>
       <c r="I94" s="10"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="74" t="n">
         <v>89</v>
       </c>
-      <c r="C95" s="75" t="s">
+      <c r="C95" s="72" t="s">
         <v>428</v>
       </c>
       <c r="D95" s="72" t="s">
@@ -15484,14 +15479,14 @@
         <f aca="false">IF(F95&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H95" s="76"/>
+      <c r="H95" s="75"/>
       <c r="I95" s="10"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="74" t="n">
         <v>90</v>
       </c>
-      <c r="C96" s="75" t="s">
+      <c r="C96" s="72" t="s">
         <v>429</v>
       </c>
       <c r="D96" s="72" t="s">
@@ -15507,14 +15502,14 @@
         <f aca="false">IF(F96&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H96" s="76"/>
+      <c r="H96" s="75"/>
       <c r="I96" s="10"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="74" t="n">
         <v>91</v>
       </c>
-      <c r="C97" s="75" t="s">
+      <c r="C97" s="72" t="s">
         <v>430</v>
       </c>
       <c r="D97" s="72" t="s">
@@ -15530,14 +15525,14 @@
         <f aca="false">IF(F97&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H97" s="76"/>
+      <c r="H97" s="75"/>
       <c r="I97" s="10"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="74" t="n">
         <v>92</v>
       </c>
-      <c r="C98" s="75" t="s">
+      <c r="C98" s="72" t="s">
         <v>431</v>
       </c>
       <c r="D98" s="72" t="s">
@@ -15553,14 +15548,14 @@
         <f aca="false">IF(F98&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H98" s="76"/>
+      <c r="H98" s="75"/>
       <c r="I98" s="10"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="74" t="n">
         <v>93</v>
       </c>
-      <c r="C99" s="75" t="s">
+      <c r="C99" s="72" t="s">
         <v>432</v>
       </c>
       <c r="D99" s="72" t="s">
@@ -15576,7 +15571,7 @@
         <f aca="false">IF(F99&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H99" s="76" t="s">
+      <c r="H99" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I99" s="10"/>
@@ -15585,7 +15580,7 @@
       <c r="B100" s="74" t="n">
         <v>94</v>
       </c>
-      <c r="C100" s="75" t="s">
+      <c r="C100" s="72" t="s">
         <v>433</v>
       </c>
       <c r="D100" s="72" t="s">
@@ -15601,14 +15596,14 @@
         <f aca="false">IF(F100&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H100" s="76"/>
+      <c r="H100" s="75"/>
       <c r="I100" s="10"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="74" t="n">
         <v>95</v>
       </c>
-      <c r="C101" s="75" t="s">
+      <c r="C101" s="72" t="s">
         <v>434</v>
       </c>
       <c r="D101" s="72" t="s">
@@ -15624,7 +15619,7 @@
         <f aca="false">IF(F101&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H101" s="76"/>
+      <c r="H101" s="75"/>
       <c r="I101" s="10" t="s">
         <v>435</v>
       </c>
@@ -15633,7 +15628,7 @@
       <c r="B102" s="74" t="n">
         <v>96</v>
       </c>
-      <c r="C102" s="75" t="s">
+      <c r="C102" s="72" t="s">
         <v>436</v>
       </c>
       <c r="D102" s="72" t="s">
@@ -15649,14 +15644,14 @@
         <f aca="false">IF(F102&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H102" s="76"/>
+      <c r="H102" s="75"/>
       <c r="I102" s="10"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="74" t="n">
         <v>97</v>
       </c>
-      <c r="C103" s="75" t="s">
+      <c r="C103" s="72" t="s">
         <v>438</v>
       </c>
       <c r="D103" s="72" t="s">
@@ -15672,14 +15667,14 @@
         <f aca="false">IF(F103&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H103" s="76"/>
+      <c r="H103" s="75"/>
       <c r="I103" s="10"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="74" t="n">
         <v>98</v>
       </c>
-      <c r="C104" s="75" t="s">
+      <c r="C104" s="72" t="s">
         <v>439</v>
       </c>
       <c r="D104" s="72" t="s">
@@ -15695,14 +15690,14 @@
         <f aca="false">IF(F104&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H104" s="76"/>
+      <c r="H104" s="75"/>
       <c r="I104" s="10"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="74" t="n">
         <v>99</v>
       </c>
-      <c r="C105" s="75" t="s">
+      <c r="C105" s="72" t="s">
         <v>440</v>
       </c>
       <c r="D105" s="72" t="s">
@@ -15718,14 +15713,14 @@
         <f aca="false">IF(F105&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H105" s="76"/>
+      <c r="H105" s="75"/>
       <c r="I105" s="10"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="74" t="n">
         <v>100</v>
       </c>
-      <c r="C106" s="75" t="s">
+      <c r="C106" s="72" t="s">
         <v>442</v>
       </c>
       <c r="D106" s="72" t="s">
@@ -15741,7 +15736,7 @@
         <f aca="false">IF(F106&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H106" s="76" t="s">
+      <c r="H106" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I106" s="10"/>
@@ -15750,7 +15745,7 @@
       <c r="B107" s="74" t="n">
         <v>101</v>
       </c>
-      <c r="C107" s="75" t="s">
+      <c r="C107" s="72" t="s">
         <v>444</v>
       </c>
       <c r="D107" s="72" t="s">
@@ -15766,14 +15761,14 @@
         <f aca="false">IF(F107&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H107" s="76"/>
+      <c r="H107" s="75"/>
       <c r="I107" s="10"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="74" t="n">
         <v>102</v>
       </c>
-      <c r="C108" s="75" t="s">
+      <c r="C108" s="72" t="s">
         <v>445</v>
       </c>
       <c r="D108" s="72" t="s">
@@ -15789,14 +15784,14 @@
         <f aca="false">IF(F108&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H108" s="76"/>
+      <c r="H108" s="75"/>
       <c r="I108" s="10"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="74" t="n">
         <v>103</v>
       </c>
-      <c r="C109" s="75" t="s">
+      <c r="C109" s="72" t="s">
         <v>446</v>
       </c>
       <c r="D109" s="72" t="s">
@@ -15812,14 +15807,14 @@
         <f aca="false">IF(F109&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H109" s="76"/>
+      <c r="H109" s="75"/>
       <c r="I109" s="10"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="74" t="n">
         <v>104</v>
       </c>
-      <c r="C110" s="75" t="s">
+      <c r="C110" s="72" t="s">
         <v>447</v>
       </c>
       <c r="D110" s="72" t="s">
@@ -15835,14 +15830,14 @@
         <f aca="false">IF(F110&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H110" s="76"/>
+      <c r="H110" s="75"/>
       <c r="I110" s="10"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="74" t="n">
         <v>105</v>
       </c>
-      <c r="C111" s="75" t="s">
+      <c r="C111" s="72" t="s">
         <v>448</v>
       </c>
       <c r="D111" s="72" t="s">
@@ -15858,7 +15853,7 @@
         <f aca="false">IF(F111&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H111" s="76" t="s">
+      <c r="H111" s="75" t="s">
         <v>449</v>
       </c>
       <c r="I111" s="10"/>
@@ -15867,7 +15862,7 @@
       <c r="B112" s="74" t="n">
         <v>106</v>
       </c>
-      <c r="C112" s="75" t="s">
+      <c r="C112" s="72" t="s">
         <v>450</v>
       </c>
       <c r="D112" s="72" t="s">
@@ -15883,14 +15878,14 @@
         <f aca="false">IF(F112&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H112" s="76"/>
+      <c r="H112" s="75"/>
       <c r="I112" s="10"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="74" t="n">
         <v>107</v>
       </c>
-      <c r="C113" s="75" t="s">
+      <c r="C113" s="72" t="s">
         <v>451</v>
       </c>
       <c r="D113" s="72" t="s">
@@ -15906,14 +15901,14 @@
         <f aca="false">IF(F113&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H113" s="76"/>
+      <c r="H113" s="75"/>
       <c r="I113" s="10"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="74" t="n">
         <v>108</v>
       </c>
-      <c r="C114" s="75" t="s">
+      <c r="C114" s="72" t="s">
         <v>452</v>
       </c>
       <c r="D114" s="72" t="s">
@@ -15929,14 +15924,14 @@
         <f aca="false">IF(F114&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H114" s="76"/>
+      <c r="H114" s="75"/>
       <c r="I114" s="10"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="74" t="n">
         <v>109</v>
       </c>
-      <c r="C115" s="75" t="s">
+      <c r="C115" s="72" t="s">
         <v>453</v>
       </c>
       <c r="D115" s="72" t="s">
@@ -15953,7 +15948,7 @@
         <v/>
       </c>
       <c r="H115" s="1"/>
-      <c r="I115" s="76" t="s">
+      <c r="I115" s="75" t="s">
         <v>454</v>
       </c>
     </row>
@@ -15961,7 +15956,7 @@
       <c r="B116" s="74" t="n">
         <v>110</v>
       </c>
-      <c r="C116" s="75" t="s">
+      <c r="C116" s="72" t="s">
         <v>455</v>
       </c>
       <c r="D116" s="72" t="s">
@@ -15977,14 +15972,14 @@
         <f aca="false">IF(F116&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H116" s="76"/>
+      <c r="H116" s="75"/>
       <c r="I116" s="10"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="74" t="n">
         <v>111</v>
       </c>
-      <c r="C117" s="75" t="s">
+      <c r="C117" s="72" t="s">
         <v>456</v>
       </c>
       <c r="D117" s="72" t="s">
@@ -16000,14 +15995,14 @@
         <f aca="false">IF(F117&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H117" s="76"/>
+      <c r="H117" s="75"/>
       <c r="I117" s="10"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="74" t="n">
         <v>112</v>
       </c>
-      <c r="C118" s="75" t="s">
+      <c r="C118" s="72" t="s">
         <v>457</v>
       </c>
       <c r="D118" s="72" t="s">
@@ -16023,14 +16018,14 @@
         <f aca="false">IF(F118&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H118" s="76"/>
+      <c r="H118" s="75"/>
       <c r="I118" s="10"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="74" t="n">
         <v>113</v>
       </c>
-      <c r="C119" s="75" t="s">
+      <c r="C119" s="72" t="s">
         <v>458</v>
       </c>
       <c r="D119" s="72" t="s">
@@ -16046,7 +16041,7 @@
         <f aca="false">IF(F119&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H119" s="76" t="s">
+      <c r="H119" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I119" s="10"/>
@@ -16055,7 +16050,7 @@
       <c r="B120" s="74" t="n">
         <v>114</v>
       </c>
-      <c r="C120" s="75" t="s">
+      <c r="C120" s="72" t="s">
         <v>459</v>
       </c>
       <c r="D120" s="72" t="s">
@@ -16071,7 +16066,7 @@
         <f aca="false">IF(F120&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H120" s="76" t="s">
+      <c r="H120" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I120" s="10"/>
@@ -16080,7 +16075,7 @@
       <c r="B121" s="74" t="n">
         <v>115</v>
       </c>
-      <c r="C121" s="75" t="s">
+      <c r="C121" s="72" t="s">
         <v>460</v>
       </c>
       <c r="D121" s="72" t="s">
@@ -16096,14 +16091,14 @@
         <f aca="false">IF(F121&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H121" s="76"/>
+      <c r="H121" s="75"/>
       <c r="I121" s="10"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="74" t="n">
         <v>116</v>
       </c>
-      <c r="C122" s="75" t="s">
+      <c r="C122" s="72" t="s">
         <v>461</v>
       </c>
       <c r="D122" s="72" t="s">
@@ -16119,14 +16114,14 @@
         <f aca="false">IF(F122&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H122" s="76"/>
+      <c r="H122" s="75"/>
       <c r="I122" s="10"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="74" t="n">
         <v>117</v>
       </c>
-      <c r="C123" s="75" t="s">
+      <c r="C123" s="72" t="s">
         <v>462</v>
       </c>
       <c r="D123" s="72" t="s">
@@ -16142,7 +16137,7 @@
         <f aca="false">IF(F123&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H123" s="76" t="s">
+      <c r="H123" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I123" s="10"/>
@@ -16151,7 +16146,7 @@
       <c r="B124" s="74" t="n">
         <v>118</v>
       </c>
-      <c r="C124" s="75" t="s">
+      <c r="C124" s="72" t="s">
         <v>463</v>
       </c>
       <c r="D124" s="72" t="s">
@@ -16167,14 +16162,14 @@
         <f aca="false">IF(F124&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H124" s="76"/>
+      <c r="H124" s="75"/>
       <c r="I124" s="10"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="74" t="n">
         <v>119</v>
       </c>
-      <c r="C125" s="75" t="s">
+      <c r="C125" s="72" t="s">
         <v>465</v>
       </c>
       <c r="D125" s="72" t="s">
@@ -16190,14 +16185,14 @@
         <f aca="false">IF(F125&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H125" s="76"/>
+      <c r="H125" s="75"/>
       <c r="I125" s="10"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="74" t="n">
         <v>120</v>
       </c>
-      <c r="C126" s="75" t="s">
+      <c r="C126" s="72" t="s">
         <v>466</v>
       </c>
       <c r="D126" s="72" t="s">
@@ -16213,14 +16208,14 @@
         <f aca="false">IF(F126&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H126" s="76"/>
+      <c r="H126" s="75"/>
       <c r="I126" s="10"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="74" t="n">
         <v>121</v>
       </c>
-      <c r="C127" s="75" t="s">
+      <c r="C127" s="72" t="s">
         <v>467</v>
       </c>
       <c r="D127" s="72" t="s">
@@ -16236,7 +16231,7 @@
         <f aca="false">IF(F127&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H127" s="76" t="s">
+      <c r="H127" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I127" s="10"/>
@@ -16245,7 +16240,7 @@
       <c r="B128" s="74" t="n">
         <v>122</v>
       </c>
-      <c r="C128" s="75" t="s">
+      <c r="C128" s="72" t="s">
         <v>468</v>
       </c>
       <c r="D128" s="72" t="s">
@@ -16261,14 +16256,14 @@
         <f aca="false">IF(F128&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H128" s="76"/>
+      <c r="H128" s="75"/>
       <c r="I128" s="10"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="74" t="n">
         <v>123</v>
       </c>
-      <c r="C129" s="75" t="s">
+      <c r="C129" s="72" t="s">
         <v>469</v>
       </c>
       <c r="D129" s="72" t="s">
@@ -16284,7 +16279,7 @@
         <f aca="false">IF(F129&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H129" s="76" t="s">
+      <c r="H129" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I129" s="10"/>
@@ -16293,7 +16288,7 @@
       <c r="B130" s="74" t="n">
         <v>124</v>
       </c>
-      <c r="C130" s="75" t="s">
+      <c r="C130" s="72" t="s">
         <v>470</v>
       </c>
       <c r="D130" s="72" t="s">
@@ -16309,14 +16304,14 @@
         <f aca="false">IF(F130&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H130" s="76"/>
+      <c r="H130" s="75"/>
       <c r="I130" s="10"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="74" t="n">
         <v>125</v>
       </c>
-      <c r="C131" s="75" t="s">
+      <c r="C131" s="72" t="s">
         <v>327</v>
       </c>
       <c r="D131" s="72" t="s">
@@ -16332,14 +16327,14 @@
         <f aca="false">IF(F131&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H131" s="76"/>
+      <c r="H131" s="75"/>
       <c r="I131" s="10"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="74" t="n">
         <v>126</v>
       </c>
-      <c r="C132" s="75" t="s">
+      <c r="C132" s="72" t="s">
         <v>471</v>
       </c>
       <c r="D132" s="72" t="s">
@@ -16355,14 +16350,14 @@
         <f aca="false">IF(F132&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H132" s="76"/>
+      <c r="H132" s="75"/>
       <c r="I132" s="10"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="74" t="n">
         <v>127</v>
       </c>
-      <c r="C133" s="75" t="s">
+      <c r="C133" s="72" t="s">
         <v>472</v>
       </c>
       <c r="D133" s="72" t="s">
@@ -16378,14 +16373,14 @@
         <f aca="false">IF(F133&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H133" s="76"/>
+      <c r="H133" s="75"/>
       <c r="I133" s="10"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="74" t="n">
         <v>128</v>
       </c>
-      <c r="C134" s="75" t="s">
+      <c r="C134" s="72" t="s">
         <v>473</v>
       </c>
       <c r="D134" s="72" t="s">
@@ -16401,14 +16396,14 @@
         <f aca="false">IF(F134&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H134" s="76"/>
+      <c r="H134" s="75"/>
       <c r="I134" s="10"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="74" t="n">
         <v>129</v>
       </c>
-      <c r="C135" s="75" t="s">
+      <c r="C135" s="72" t="s">
         <v>474</v>
       </c>
       <c r="D135" s="72" t="s">
@@ -16424,14 +16419,14 @@
         <f aca="false">IF(F135&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H135" s="76"/>
+      <c r="H135" s="75"/>
       <c r="I135" s="10"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="74" t="n">
         <v>130</v>
       </c>
-      <c r="C136" s="75" t="s">
+      <c r="C136" s="72" t="s">
         <v>475</v>
       </c>
       <c r="D136" s="72" t="s">
@@ -16447,14 +16442,14 @@
         <f aca="false">IF(F136&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H136" s="76"/>
+      <c r="H136" s="75"/>
       <c r="I136" s="10"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="74" t="n">
         <v>131</v>
       </c>
-      <c r="C137" s="75" t="s">
+      <c r="C137" s="72" t="s">
         <v>476</v>
       </c>
       <c r="D137" s="72" t="s">
@@ -16470,14 +16465,14 @@
         <f aca="false">IF(F137&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H137" s="76"/>
+      <c r="H137" s="75"/>
       <c r="I137" s="10"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="74" t="n">
         <v>132</v>
       </c>
-      <c r="C138" s="75" t="s">
+      <c r="C138" s="72" t="s">
         <v>478</v>
       </c>
       <c r="D138" s="72" t="s">
@@ -16493,14 +16488,14 @@
         <f aca="false">IF(F138&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H138" s="76"/>
+      <c r="H138" s="75"/>
       <c r="I138" s="10"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="74" t="n">
         <v>133</v>
       </c>
-      <c r="C139" s="75" t="s">
+      <c r="C139" s="72" t="s">
         <v>479</v>
       </c>
       <c r="D139" s="72" t="s">
@@ -16516,14 +16511,14 @@
         <f aca="false">IF(F139&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H139" s="76"/>
+      <c r="H139" s="75"/>
       <c r="I139" s="10"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="74" t="n">
         <v>134</v>
       </c>
-      <c r="C140" s="75" t="s">
+      <c r="C140" s="72" t="s">
         <v>480</v>
       </c>
       <c r="D140" s="72" t="s">
@@ -16539,14 +16534,14 @@
         <f aca="false">IF(F140&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H140" s="76"/>
+      <c r="H140" s="75"/>
       <c r="I140" s="10"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="74" t="n">
         <v>135</v>
       </c>
-      <c r="C141" s="75" t="s">
+      <c r="C141" s="72" t="s">
         <v>481</v>
       </c>
       <c r="D141" s="72" t="s">
@@ -16562,14 +16557,14 @@
         <f aca="false">IF(F141&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H141" s="76"/>
+      <c r="H141" s="75"/>
       <c r="I141" s="10"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="74" t="n">
         <v>136</v>
       </c>
-      <c r="C142" s="75" t="s">
+      <c r="C142" s="72" t="s">
         <v>482</v>
       </c>
       <c r="D142" s="72" t="s">
@@ -16585,14 +16580,14 @@
         <f aca="false">IF(F142&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H142" s="76"/>
+      <c r="H142" s="75"/>
       <c r="I142" s="10"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="74" t="n">
         <v>137</v>
       </c>
-      <c r="C143" s="75" t="s">
+      <c r="C143" s="72" t="s">
         <v>484</v>
       </c>
       <c r="D143" s="72" t="s">
@@ -16608,14 +16603,14 @@
         <f aca="false">IF(F143&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H143" s="76"/>
+      <c r="H143" s="75"/>
       <c r="I143" s="10"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="74" t="n">
         <v>138</v>
       </c>
-      <c r="C144" s="75" t="s">
+      <c r="C144" s="72" t="s">
         <v>485</v>
       </c>
       <c r="D144" s="72" t="s">
@@ -16631,14 +16626,14 @@
         <f aca="false">IF(F144&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H144" s="76"/>
+      <c r="H144" s="75"/>
       <c r="I144" s="10"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="74" t="n">
         <v>139</v>
       </c>
-      <c r="C145" s="75" t="s">
+      <c r="C145" s="72" t="s">
         <v>486</v>
       </c>
       <c r="D145" s="72" t="s">
@@ -16654,14 +16649,14 @@
         <f aca="false">IF(F145&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H145" s="76"/>
+      <c r="H145" s="75"/>
       <c r="I145" s="10"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="74" t="n">
         <v>140</v>
       </c>
-      <c r="C146" s="75" t="s">
+      <c r="C146" s="72" t="s">
         <v>487</v>
       </c>
       <c r="D146" s="72" t="s">
@@ -16677,14 +16672,14 @@
         <f aca="false">IF(F146&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H146" s="76"/>
+      <c r="H146" s="75"/>
       <c r="I146" s="10"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="74" t="n">
         <v>141</v>
       </c>
-      <c r="C147" s="75" t="s">
+      <c r="C147" s="72" t="s">
         <v>488</v>
       </c>
       <c r="D147" s="72" t="s">
@@ -16700,14 +16695,14 @@
         <f aca="false">IF(F147&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H147" s="76"/>
+      <c r="H147" s="75"/>
       <c r="I147" s="10"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="74" t="n">
         <v>142</v>
       </c>
-      <c r="C148" s="75" t="s">
+      <c r="C148" s="72" t="s">
         <v>489</v>
       </c>
       <c r="D148" s="72" t="s">
@@ -16723,14 +16718,14 @@
         <f aca="false">IF(F148&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H148" s="76"/>
+      <c r="H148" s="75"/>
       <c r="I148" s="10"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="74" t="n">
         <v>143</v>
       </c>
-      <c r="C149" s="75" t="s">
+      <c r="C149" s="72" t="s">
         <v>490</v>
       </c>
       <c r="D149" s="72" t="s">
@@ -16746,14 +16741,14 @@
         <f aca="false">IF(F149&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H149" s="76"/>
+      <c r="H149" s="75"/>
       <c r="I149" s="10"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="74" t="n">
         <v>144</v>
       </c>
-      <c r="C150" s="75" t="s">
+      <c r="C150" s="72" t="s">
         <v>491</v>
       </c>
       <c r="D150" s="72" t="s">
@@ -16769,14 +16764,14 @@
         <f aca="false">IF(F150&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H150" s="76"/>
+      <c r="H150" s="75"/>
       <c r="I150" s="10"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="74" t="n">
         <v>145</v>
       </c>
-      <c r="C151" s="75" t="s">
+      <c r="C151" s="72" t="s">
         <v>492</v>
       </c>
       <c r="D151" s="72" t="s">
@@ -16792,7 +16787,7 @@
         <f aca="false">IF(F151&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H151" s="76" t="s">
+      <c r="H151" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I151" s="10"/>
@@ -16801,7 +16796,7 @@
       <c r="B152" s="74" t="n">
         <v>146</v>
       </c>
-      <c r="C152" s="75" t="s">
+      <c r="C152" s="72" t="s">
         <v>493</v>
       </c>
       <c r="D152" s="72" t="s">
@@ -16817,14 +16812,14 @@
         <f aca="false">IF(F152&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H152" s="76"/>
+      <c r="H152" s="75"/>
       <c r="I152" s="10"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="74" t="n">
         <v>147</v>
       </c>
-      <c r="C153" s="75" t="s">
+      <c r="C153" s="72" t="s">
         <v>494</v>
       </c>
       <c r="D153" s="72" t="s">
@@ -16840,14 +16835,14 @@
         <f aca="false">IF(F153&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H153" s="76"/>
+      <c r="H153" s="75"/>
       <c r="I153" s="10"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="74" t="n">
         <v>148</v>
       </c>
-      <c r="C154" s="75" t="s">
+      <c r="C154" s="72" t="s">
         <v>496</v>
       </c>
       <c r="D154" s="72" t="s">
@@ -16863,14 +16858,14 @@
         <f aca="false">IF(F154&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H154" s="76"/>
+      <c r="H154" s="75"/>
       <c r="I154" s="10"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="74" t="n">
         <v>149</v>
       </c>
-      <c r="C155" s="75" t="s">
+      <c r="C155" s="72" t="s">
         <v>497</v>
       </c>
       <c r="D155" s="72" t="s">
@@ -16886,14 +16881,14 @@
         <f aca="false">IF(F155&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H155" s="76"/>
+      <c r="H155" s="75"/>
       <c r="I155" s="10"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="74" t="n">
         <v>150</v>
       </c>
-      <c r="C156" s="75" t="s">
+      <c r="C156" s="72" t="s">
         <v>498</v>
       </c>
       <c r="D156" s="72" t="s">
@@ -16909,14 +16904,14 @@
         <f aca="false">IF(F156&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H156" s="76"/>
+      <c r="H156" s="75"/>
       <c r="I156" s="10"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="74" t="n">
         <v>151</v>
       </c>
-      <c r="C157" s="75" t="s">
+      <c r="C157" s="72" t="s">
         <v>499</v>
       </c>
       <c r="D157" s="72" t="s">
@@ -16932,14 +16927,14 @@
         <f aca="false">IF(F157&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H157" s="76"/>
+      <c r="H157" s="75"/>
       <c r="I157" s="10"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="74" t="n">
         <v>152</v>
       </c>
-      <c r="C158" s="75" t="s">
+      <c r="C158" s="72" t="s">
         <v>500</v>
       </c>
       <c r="D158" s="72" t="s">
@@ -16955,14 +16950,14 @@
         <f aca="false">IF(F158&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H158" s="76"/>
+      <c r="H158" s="75"/>
       <c r="I158" s="10"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="74" t="n">
         <v>153</v>
       </c>
-      <c r="C159" s="75" t="s">
+      <c r="C159" s="72" t="s">
         <v>501</v>
       </c>
       <c r="D159" s="72" t="s">
@@ -16978,14 +16973,14 @@
         <f aca="false">IF(F159&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H159" s="76"/>
+      <c r="H159" s="75"/>
       <c r="I159" s="10"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="74" t="n">
         <v>154</v>
       </c>
-      <c r="C160" s="75" t="s">
+      <c r="C160" s="72" t="s">
         <v>502</v>
       </c>
       <c r="D160" s="72" t="s">
@@ -17001,14 +16996,14 @@
         <f aca="false">IF(F160&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H160" s="76"/>
+      <c r="H160" s="75"/>
       <c r="I160" s="10"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="74" t="n">
         <v>155</v>
       </c>
-      <c r="C161" s="75" t="s">
+      <c r="C161" s="72" t="s">
         <v>503</v>
       </c>
       <c r="D161" s="72" t="s">
@@ -17024,14 +17019,14 @@
         <f aca="false">IF(F161&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H161" s="76"/>
+      <c r="H161" s="75"/>
       <c r="I161" s="10"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="74" t="n">
         <v>156</v>
       </c>
-      <c r="C162" s="75" t="s">
+      <c r="C162" s="72" t="s">
         <v>504</v>
       </c>
       <c r="D162" s="72" t="s">
@@ -17047,14 +17042,14 @@
         <f aca="false">IF(F162&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H162" s="76"/>
+      <c r="H162" s="75"/>
       <c r="I162" s="10"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="74" t="n">
         <v>157</v>
       </c>
-      <c r="C163" s="75" t="s">
+      <c r="C163" s="72" t="s">
         <v>505</v>
       </c>
       <c r="D163" s="72" t="s">
@@ -17071,7 +17066,7 @@
         <v/>
       </c>
       <c r="H163" s="1"/>
-      <c r="I163" s="76" t="s">
+      <c r="I163" s="75" t="s">
         <v>506</v>
       </c>
     </row>
@@ -17079,7 +17074,7 @@
       <c r="B164" s="74" t="n">
         <v>158</v>
       </c>
-      <c r="C164" s="75" t="s">
+      <c r="C164" s="72" t="s">
         <v>507</v>
       </c>
       <c r="D164" s="72" t="s">
@@ -17095,14 +17090,14 @@
         <f aca="false">IF(F164&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H164" s="76"/>
+      <c r="H164" s="75"/>
       <c r="I164" s="10"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="74" t="n">
         <v>159</v>
       </c>
-      <c r="C165" s="75" t="s">
+      <c r="C165" s="72" t="s">
         <v>508</v>
       </c>
       <c r="D165" s="72" t="s">
@@ -17118,14 +17113,14 @@
         <f aca="false">IF(F165&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H165" s="76"/>
+      <c r="H165" s="75"/>
       <c r="I165" s="10"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="74" t="n">
         <v>160</v>
       </c>
-      <c r="C166" s="75" t="s">
+      <c r="C166" s="72" t="s">
         <v>509</v>
       </c>
       <c r="D166" s="72" t="s">
@@ -17141,14 +17136,14 @@
         <f aca="false">IF(F166&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H166" s="76"/>
+      <c r="H166" s="75"/>
       <c r="I166" s="10"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="74" t="n">
         <v>161</v>
       </c>
-      <c r="C167" s="75" t="s">
+      <c r="C167" s="72" t="s">
         <v>510</v>
       </c>
       <c r="D167" s="72" t="s">
@@ -17164,14 +17159,14 @@
         <f aca="false">IF(F167&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H167" s="76"/>
+      <c r="H167" s="75"/>
       <c r="I167" s="10"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="74" t="n">
         <v>162</v>
       </c>
-      <c r="C168" s="75" t="s">
+      <c r="C168" s="72" t="s">
         <v>511</v>
       </c>
       <c r="D168" s="72" t="s">
@@ -17187,14 +17182,14 @@
         <f aca="false">IF(F168&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H168" s="76"/>
+      <c r="H168" s="75"/>
       <c r="I168" s="10"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="74" t="n">
         <v>163</v>
       </c>
-      <c r="C169" s="75" t="s">
+      <c r="C169" s="72" t="s">
         <v>512</v>
       </c>
       <c r="D169" s="72" t="s">
@@ -17210,14 +17205,14 @@
         <f aca="false">IF(F169&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H169" s="76"/>
+      <c r="H169" s="75"/>
       <c r="I169" s="10"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="74" t="n">
         <v>164</v>
       </c>
-      <c r="C170" s="75" t="s">
+      <c r="C170" s="72" t="s">
         <v>513</v>
       </c>
       <c r="D170" s="72" t="s">
@@ -17233,14 +17228,14 @@
         <f aca="false">IF(F170&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H170" s="76"/>
+      <c r="H170" s="75"/>
       <c r="I170" s="10"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="74" t="n">
         <v>165</v>
       </c>
-      <c r="C171" s="75" t="s">
+      <c r="C171" s="72" t="s">
         <v>514</v>
       </c>
       <c r="D171" s="72" t="s">
@@ -17256,14 +17251,14 @@
         <f aca="false">IF(F171&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H171" s="76"/>
+      <c r="H171" s="75"/>
       <c r="I171" s="10"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="74" t="n">
         <v>166</v>
       </c>
-      <c r="C172" s="75" t="s">
+      <c r="C172" s="72" t="s">
         <v>515</v>
       </c>
       <c r="D172" s="72" t="s">
@@ -17279,7 +17274,7 @@
         <f aca="false">IF(F172&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H172" s="76" t="s">
+      <c r="H172" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I172" s="10"/>
@@ -17288,7 +17283,7 @@
       <c r="B173" s="74" t="n">
         <v>167</v>
       </c>
-      <c r="C173" s="75" t="s">
+      <c r="C173" s="72" t="s">
         <v>516</v>
       </c>
       <c r="D173" s="72" t="s">
@@ -17304,14 +17299,14 @@
         <f aca="false">IF(F173&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H173" s="76"/>
+      <c r="H173" s="75"/>
       <c r="I173" s="10"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="74" t="n">
         <v>168</v>
       </c>
-      <c r="C174" s="75" t="s">
+      <c r="C174" s="72" t="s">
         <v>518</v>
       </c>
       <c r="D174" s="72" t="s">
@@ -17327,14 +17322,14 @@
         <f aca="false">IF(F174&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H174" s="76"/>
+      <c r="H174" s="75"/>
       <c r="I174" s="10"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="74" t="n">
         <v>169</v>
       </c>
-      <c r="C175" s="75" t="s">
+      <c r="C175" s="72" t="s">
         <v>519</v>
       </c>
       <c r="D175" s="72" t="s">
@@ -17350,7 +17345,7 @@
         <f aca="false">IF(F175&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H175" s="76" t="s">
+      <c r="H175" s="75" t="s">
         <v>330</v>
       </c>
       <c r="I175" s="10"/>
@@ -17359,7 +17354,7 @@
       <c r="B176" s="74" t="n">
         <v>170</v>
       </c>
-      <c r="C176" s="75" t="s">
+      <c r="C176" s="72" t="s">
         <v>520</v>
       </c>
       <c r="D176" s="72" t="s">
@@ -17375,14 +17370,14 @@
         <f aca="false">IF(F176&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H176" s="76"/>
+      <c r="H176" s="75"/>
       <c r="I176" s="10"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="74" t="n">
         <v>171</v>
       </c>
-      <c r="C177" s="75" t="s">
+      <c r="C177" s="72" t="s">
         <v>521</v>
       </c>
       <c r="D177" s="72" t="s">
@@ -17398,14 +17393,14 @@
         <f aca="false">IF(F177&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H177" s="76"/>
+      <c r="H177" s="75"/>
       <c r="I177" s="10"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="74" t="n">
         <v>172</v>
       </c>
-      <c r="C178" s="75" t="s">
+      <c r="C178" s="72" t="s">
         <v>522</v>
       </c>
       <c r="D178" s="72" t="s">
@@ -17421,14 +17416,14 @@
         <f aca="false">IF(F178&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H178" s="76"/>
+      <c r="H178" s="75"/>
       <c r="I178" s="10"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="74" t="n">
         <v>173</v>
       </c>
-      <c r="C179" s="75" t="s">
+      <c r="C179" s="72" t="s">
         <v>523</v>
       </c>
       <c r="D179" s="72" t="s">
@@ -17444,14 +17439,14 @@
         <f aca="false">IF(F179&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H179" s="76"/>
+      <c r="H179" s="75"/>
       <c r="I179" s="10"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="74" t="n">
         <v>174</v>
       </c>
-      <c r="C180" s="75" t="s">
+      <c r="C180" s="72" t="s">
         <v>524</v>
       </c>
       <c r="D180" s="72" t="s">
@@ -17467,14 +17462,14 @@
         <f aca="false">IF(F180&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H180" s="76"/>
+      <c r="H180" s="75"/>
       <c r="I180" s="10"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="74" t="n">
         <v>175</v>
       </c>
-      <c r="C181" s="75" t="s">
+      <c r="C181" s="72" t="s">
         <v>525</v>
       </c>
       <c r="D181" s="72" t="s">
@@ -17490,14 +17485,14 @@
         <f aca="false">IF(F181&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H181" s="76"/>
+      <c r="H181" s="75"/>
       <c r="I181" s="10"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="74" t="n">
         <v>176</v>
       </c>
-      <c r="C182" s="75" t="s">
+      <c r="C182" s="72" t="s">
         <v>526</v>
       </c>
       <c r="D182" s="72" t="s">
@@ -17513,14 +17508,14 @@
         <f aca="false">IF(F182&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H182" s="76"/>
+      <c r="H182" s="75"/>
       <c r="I182" s="10"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="74" t="n">
         <v>177</v>
       </c>
-      <c r="C183" s="75" t="s">
+      <c r="C183" s="72" t="s">
         <v>527</v>
       </c>
       <c r="D183" s="72" t="s">
@@ -17536,14 +17531,14 @@
         <f aca="false">IF(F183&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H183" s="76"/>
+      <c r="H183" s="75"/>
       <c r="I183" s="10"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="74" t="n">
         <v>178</v>
       </c>
-      <c r="C184" s="75" t="s">
+      <c r="C184" s="72" t="s">
         <v>528</v>
       </c>
       <c r="D184" s="72" t="s">
@@ -17559,14 +17554,14 @@
         <f aca="false">IF(F184&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H184" s="76"/>
+      <c r="H184" s="75"/>
       <c r="I184" s="10"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="74" t="n">
         <v>179</v>
       </c>
-      <c r="C185" s="75" t="s">
+      <c r="C185" s="72" t="s">
         <v>529</v>
       </c>
       <c r="D185" s="72" t="s">
@@ -17582,14 +17577,14 @@
         <f aca="false">IF(F185&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H185" s="76"/>
+      <c r="H185" s="75"/>
       <c r="I185" s="10"/>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="74" t="n">
         <v>180</v>
       </c>
-      <c r="C186" s="75" t="s">
+      <c r="C186" s="72" t="s">
         <v>530</v>
       </c>
       <c r="D186" s="72" t="s">
@@ -17605,14 +17600,14 @@
         <f aca="false">IF(F186&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H186" s="76"/>
+      <c r="H186" s="75"/>
       <c r="I186" s="10"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="74" t="n">
         <v>181</v>
       </c>
-      <c r="C187" s="75" t="s">
+      <c r="C187" s="72" t="s">
         <v>531</v>
       </c>
       <c r="D187" s="72" t="s">
@@ -17628,14 +17623,14 @@
         <f aca="false">IF(F187&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H187" s="76"/>
+      <c r="H187" s="75"/>
       <c r="I187" s="10"/>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="74" t="n">
         <v>182</v>
       </c>
-      <c r="C188" s="75" t="s">
+      <c r="C188" s="72" t="s">
         <v>533</v>
       </c>
       <c r="D188" s="72" t="s">
@@ -17651,14 +17646,14 @@
         <f aca="false">IF(F188&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H188" s="76"/>
+      <c r="H188" s="75"/>
       <c r="I188" s="10"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="74" t="n">
         <v>183</v>
       </c>
-      <c r="C189" s="75" t="s">
+      <c r="C189" s="72" t="s">
         <v>534</v>
       </c>
       <c r="D189" s="72" t="s">
@@ -17674,14 +17669,14 @@
         <f aca="false">IF(F189&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H189" s="76"/>
+      <c r="H189" s="75"/>
       <c r="I189" s="10"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="74" t="n">
         <v>184</v>
       </c>
-      <c r="C190" s="75" t="s">
+      <c r="C190" s="72" t="s">
         <v>535</v>
       </c>
       <c r="D190" s="72" t="s">
@@ -17697,14 +17692,14 @@
         <f aca="false">IF(F190&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H190" s="76"/>
+      <c r="H190" s="75"/>
       <c r="I190" s="10"/>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="74" t="n">
         <v>185</v>
       </c>
-      <c r="C191" s="75" t="s">
+      <c r="C191" s="72" t="s">
         <v>536</v>
       </c>
       <c r="D191" s="72" t="s">
@@ -17720,14 +17715,14 @@
         <f aca="false">IF(F191&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H191" s="76"/>
+      <c r="H191" s="75"/>
       <c r="I191" s="10"/>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="74" t="n">
         <v>186</v>
       </c>
-      <c r="C192" s="75" t="s">
+      <c r="C192" s="72" t="s">
         <v>537</v>
       </c>
       <c r="D192" s="72" t="s">
@@ -17743,14 +17738,14 @@
         <f aca="false">IF(F192&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H192" s="76"/>
+      <c r="H192" s="75"/>
       <c r="I192" s="10"/>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="74" t="n">
         <v>187</v>
       </c>
-      <c r="C193" s="75" t="s">
+      <c r="C193" s="72" t="s">
         <v>538</v>
       </c>
       <c r="D193" s="72" t="s">
@@ -17766,14 +17761,14 @@
         <f aca="false">IF(F193&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H193" s="76"/>
+      <c r="H193" s="75"/>
       <c r="I193" s="10"/>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="74" t="n">
         <v>188</v>
       </c>
-      <c r="C194" s="75" t="s">
+      <c r="C194" s="72" t="s">
         <v>539</v>
       </c>
       <c r="D194" s="72" t="s">
@@ -17789,14 +17784,14 @@
         <f aca="false">IF(F194&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H194" s="76"/>
+      <c r="H194" s="75"/>
       <c r="I194" s="10"/>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="74" t="n">
         <v>189</v>
       </c>
-      <c r="C195" s="75" t="s">
+      <c r="C195" s="72" t="s">
         <v>540</v>
       </c>
       <c r="D195" s="72" t="s">
@@ -17812,14 +17807,14 @@
         <f aca="false">IF(F195&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H195" s="76"/>
+      <c r="H195" s="75"/>
       <c r="I195" s="10"/>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="74" t="n">
         <v>190</v>
       </c>
-      <c r="C196" s="75" t="s">
+      <c r="C196" s="72" t="s">
         <v>541</v>
       </c>
       <c r="D196" s="72" t="s">
@@ -17835,14 +17830,14 @@
         <f aca="false">IF(F196&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H196" s="76"/>
+      <c r="H196" s="75"/>
       <c r="I196" s="10"/>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="74" t="n">
         <v>191</v>
       </c>
-      <c r="C197" s="75" t="s">
+      <c r="C197" s="72" t="s">
         <v>542</v>
       </c>
       <c r="D197" s="72" t="s">
@@ -17858,14 +17853,14 @@
         <f aca="false">IF(F197&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H197" s="76"/>
+      <c r="H197" s="75"/>
       <c r="I197" s="10"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="74" t="n">
         <v>192</v>
       </c>
-      <c r="C198" s="75" t="s">
+      <c r="C198" s="72" t="s">
         <v>543</v>
       </c>
       <c r="D198" s="72" t="s">
@@ -17881,14 +17876,14 @@
         <f aca="false">IF(F198&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H198" s="76"/>
+      <c r="H198" s="75"/>
       <c r="I198" s="10"/>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="74" t="n">
         <v>193</v>
       </c>
-      <c r="C199" s="75" t="s">
+      <c r="C199" s="72" t="s">
         <v>544</v>
       </c>
       <c r="D199" s="72" t="s">
@@ -17904,14 +17899,14 @@
         <f aca="false">IF(F199&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H199" s="76"/>
+      <c r="H199" s="75"/>
       <c r="I199" s="10"/>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="74" t="n">
         <v>194</v>
       </c>
-      <c r="C200" s="75" t="s">
+      <c r="C200" s="72" t="s">
         <v>34</v>
       </c>
       <c r="D200" s="72" t="s">
@@ -17927,14 +17922,14 @@
         <f aca="false">IF(F200&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H200" s="76"/>
+      <c r="H200" s="75"/>
       <c r="I200" s="10"/>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="74" t="n">
         <v>195</v>
       </c>
-      <c r="C201" s="75" t="s">
+      <c r="C201" s="72" t="s">
         <v>545</v>
       </c>
       <c r="D201" s="72" t="s">
@@ -17950,14 +17945,14 @@
         <f aca="false">IF(F201&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H201" s="76"/>
+      <c r="H201" s="75"/>
       <c r="I201" s="10"/>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="74" t="n">
         <v>196</v>
       </c>
-      <c r="C202" s="75" t="s">
+      <c r="C202" s="72" t="s">
         <v>546</v>
       </c>
       <c r="D202" s="72" t="s">
@@ -17973,14 +17968,14 @@
         <f aca="false">IF(F202&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H202" s="76"/>
+      <c r="H202" s="75"/>
       <c r="I202" s="10"/>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="74" t="n">
         <v>197</v>
       </c>
-      <c r="C203" s="75" t="s">
+      <c r="C203" s="72" t="s">
         <v>547</v>
       </c>
       <c r="D203" s="72" t="s">
@@ -17996,14 +17991,14 @@
         <f aca="false">IF(F203&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H203" s="76"/>
+      <c r="H203" s="75"/>
       <c r="I203" s="10"/>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="74" t="n">
         <v>198</v>
       </c>
-      <c r="C204" s="75" t="s">
+      <c r="C204" s="72" t="s">
         <v>548</v>
       </c>
       <c r="D204" s="72" t="s">
@@ -18019,14 +18014,14 @@
         <f aca="false">IF(F204&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H204" s="76"/>
+      <c r="H204" s="75"/>
       <c r="I204" s="10"/>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="74" t="n">
         <v>199</v>
       </c>
-      <c r="C205" s="75" t="s">
+      <c r="C205" s="72" t="s">
         <v>549</v>
       </c>
       <c r="D205" s="72" t="s">
@@ -18042,14 +18037,14 @@
         <f aca="false">IF(F205&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H205" s="76"/>
+      <c r="H205" s="75"/>
       <c r="I205" s="10"/>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="74" t="n">
         <v>200</v>
       </c>
-      <c r="C206" s="75" t="s">
+      <c r="C206" s="72" t="s">
         <v>550</v>
       </c>
       <c r="D206" s="72" t="s">
@@ -18065,14 +18060,14 @@
         <f aca="false">IF(F206&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H206" s="76"/>
+      <c r="H206" s="75"/>
       <c r="I206" s="10"/>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="74" t="n">
         <v>201</v>
       </c>
-      <c r="C207" s="75" t="s">
+      <c r="C207" s="72" t="s">
         <v>551</v>
       </c>
       <c r="D207" s="72" t="s">
@@ -18088,14 +18083,14 @@
         <f aca="false">IF(F207&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H207" s="76"/>
+      <c r="H207" s="75"/>
       <c r="I207" s="10"/>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="74" t="n">
         <v>202</v>
       </c>
-      <c r="C208" s="75" t="s">
+      <c r="C208" s="72" t="s">
         <v>553</v>
       </c>
       <c r="D208" s="72" t="s">
@@ -18111,14 +18106,14 @@
         <f aca="false">IF(F208&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H208" s="76"/>
+      <c r="H208" s="75"/>
       <c r="I208" s="10"/>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="74" t="n">
         <v>203</v>
       </c>
-      <c r="C209" s="75" t="s">
+      <c r="C209" s="72" t="s">
         <v>554</v>
       </c>
       <c r="D209" s="72" t="s">
@@ -18134,14 +18129,14 @@
         <f aca="false">IF(F209&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H209" s="76"/>
+      <c r="H209" s="75"/>
       <c r="I209" s="10"/>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="74" t="n">
         <v>204</v>
       </c>
-      <c r="C210" s="75" t="s">
+      <c r="C210" s="72" t="s">
         <v>555</v>
       </c>
       <c r="D210" s="72" t="s">
@@ -18157,14 +18152,14 @@
         <f aca="false">IF(F210&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H210" s="76"/>
+      <c r="H210" s="75"/>
       <c r="I210" s="10"/>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="74" t="n">
         <v>205</v>
       </c>
-      <c r="C211" s="75" t="s">
+      <c r="C211" s="72" t="s">
         <v>556</v>
       </c>
       <c r="D211" s="72" t="s">
@@ -18180,14 +18175,14 @@
         <f aca="false">IF(F211&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H211" s="76"/>
+      <c r="H211" s="75"/>
       <c r="I211" s="10"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="74" t="n">
         <v>206</v>
       </c>
-      <c r="C212" s="75" t="s">
+      <c r="C212" s="72" t="s">
         <v>557</v>
       </c>
       <c r="D212" s="72" t="s">
@@ -18203,14 +18198,14 @@
         <f aca="false">IF(F212&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H212" s="76"/>
+      <c r="H212" s="75"/>
       <c r="I212" s="10"/>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="74" t="n">
         <v>207</v>
       </c>
-      <c r="C213" s="75" t="s">
+      <c r="C213" s="72" t="s">
         <v>558</v>
       </c>
       <c r="D213" s="72" t="s">
@@ -18226,14 +18221,14 @@
         <f aca="false">IF(F213&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H213" s="76"/>
+      <c r="H213" s="75"/>
       <c r="I213" s="10"/>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="74" t="n">
         <v>208</v>
       </c>
-      <c r="C214" s="75" t="s">
+      <c r="C214" s="72" t="s">
         <v>559</v>
       </c>
       <c r="D214" s="72" t="s">
@@ -18249,14 +18244,14 @@
         <f aca="false">IF(F214&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H214" s="76"/>
+      <c r="H214" s="75"/>
       <c r="I214" s="10"/>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="74" t="n">
         <v>209</v>
       </c>
-      <c r="C215" s="75" t="s">
+      <c r="C215" s="72" t="s">
         <v>560</v>
       </c>
       <c r="D215" s="72" t="s">
@@ -18272,14 +18267,14 @@
         <f aca="false">IF(F215&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H215" s="76"/>
+      <c r="H215" s="75"/>
       <c r="I215" s="10"/>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="74" t="n">
         <v>210</v>
       </c>
-      <c r="C216" s="75" t="s">
+      <c r="C216" s="72" t="s">
         <v>561</v>
       </c>
       <c r="D216" s="72" t="s">
@@ -18295,14 +18290,14 @@
         <f aca="false">IF(F216&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H216" s="76"/>
+      <c r="H216" s="75"/>
       <c r="I216" s="10"/>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="74" t="n">
         <v>211</v>
       </c>
-      <c r="C217" s="75" t="s">
+      <c r="C217" s="72" t="s">
         <v>563</v>
       </c>
       <c r="D217" s="72" t="s">
@@ -18318,14 +18313,14 @@
         <f aca="false">IF(F217&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H217" s="76"/>
+      <c r="H217" s="75"/>
       <c r="I217" s="10"/>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="74" t="n">
         <v>212</v>
       </c>
-      <c r="C218" s="75" t="s">
+      <c r="C218" s="72" t="s">
         <v>564</v>
       </c>
       <c r="D218" s="72" t="s">
@@ -18341,14 +18336,14 @@
         <f aca="false">IF(F218&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H218" s="76"/>
+      <c r="H218" s="75"/>
       <c r="I218" s="10"/>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="74" t="n">
         <v>213</v>
       </c>
-      <c r="C219" s="75" t="s">
+      <c r="C219" s="72" t="s">
         <v>565</v>
       </c>
       <c r="D219" s="72" t="s">
@@ -18364,14 +18359,14 @@
         <f aca="false">IF(F219&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H219" s="76"/>
+      <c r="H219" s="75"/>
       <c r="I219" s="10"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="74" t="n">
         <v>214</v>
       </c>
-      <c r="C220" s="75" t="s">
+      <c r="C220" s="72" t="s">
         <v>566</v>
       </c>
       <c r="D220" s="72" t="s">
@@ -18387,14 +18382,14 @@
         <f aca="false">IF(F220&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H220" s="76"/>
+      <c r="H220" s="75"/>
       <c r="I220" s="10"/>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="74" t="n">
         <v>215</v>
       </c>
-      <c r="C221" s="75" t="s">
+      <c r="C221" s="72" t="s">
         <v>567</v>
       </c>
       <c r="D221" s="72" t="s">
@@ -18410,14 +18405,14 @@
         <f aca="false">IF(F221&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H221" s="76"/>
+      <c r="H221" s="75"/>
       <c r="I221" s="10"/>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="74" t="n">
         <v>216</v>
       </c>
-      <c r="C222" s="75" t="s">
+      <c r="C222" s="72" t="s">
         <v>568</v>
       </c>
       <c r="D222" s="72" t="s">
@@ -18433,14 +18428,14 @@
         <f aca="false">IF(F222&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H222" s="76"/>
+      <c r="H222" s="75"/>
       <c r="I222" s="10"/>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="74" t="n">
         <v>217</v>
       </c>
-      <c r="C223" s="75" t="s">
+      <c r="C223" s="72" t="s">
         <v>569</v>
       </c>
       <c r="D223" s="72" t="s">
@@ -18456,14 +18451,14 @@
         <f aca="false">IF(F223&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H223" s="76"/>
+      <c r="H223" s="75"/>
       <c r="I223" s="10"/>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="74" t="n">
         <v>218</v>
       </c>
-      <c r="C224" s="75" t="s">
+      <c r="C224" s="72" t="s">
         <v>570</v>
       </c>
       <c r="D224" s="72" t="s">
@@ -18479,14 +18474,14 @@
         <f aca="false">IF(F224&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H224" s="76"/>
+      <c r="H224" s="75"/>
       <c r="I224" s="10"/>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="74" t="n">
         <v>219</v>
       </c>
-      <c r="C225" s="75" t="s">
+      <c r="C225" s="72" t="s">
         <v>571</v>
       </c>
       <c r="D225" s="72" t="s">
@@ -18502,14 +18497,14 @@
         <f aca="false">IF(F225&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H225" s="76"/>
+      <c r="H225" s="75"/>
       <c r="I225" s="10"/>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="74" t="n">
         <v>220</v>
       </c>
-      <c r="C226" s="75" t="s">
+      <c r="C226" s="72" t="s">
         <v>572</v>
       </c>
       <c r="D226" s="72" t="s">
@@ -18525,14 +18520,14 @@
         <f aca="false">IF(F226&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H226" s="76"/>
+      <c r="H226" s="75"/>
       <c r="I226" s="10"/>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="74" t="n">
         <v>221</v>
       </c>
-      <c r="C227" s="75" t="s">
+      <c r="C227" s="72" t="s">
         <v>574</v>
       </c>
       <c r="D227" s="72" t="s">
@@ -18548,14 +18543,14 @@
         <f aca="false">IF(F227&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H227" s="76"/>
+      <c r="H227" s="75"/>
       <c r="I227" s="10"/>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="74" t="n">
         <v>222</v>
       </c>
-      <c r="C228" s="75" t="s">
+      <c r="C228" s="72" t="s">
         <v>575</v>
       </c>
       <c r="D228" s="72" t="s">
@@ -18571,14 +18566,14 @@
         <f aca="false">IF(F228&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H228" s="76"/>
+      <c r="H228" s="75"/>
       <c r="I228" s="10"/>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="74" t="n">
         <v>223</v>
       </c>
-      <c r="C229" s="75" t="s">
+      <c r="C229" s="72" t="s">
         <v>576</v>
       </c>
       <c r="D229" s="72" t="s">
@@ -18594,14 +18589,14 @@
         <f aca="false">IF(F229&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H229" s="76"/>
+      <c r="H229" s="75"/>
       <c r="I229" s="10"/>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="74" t="n">
         <v>224</v>
       </c>
-      <c r="C230" s="75" t="s">
+      <c r="C230" s="72" t="s">
         <v>577</v>
       </c>
       <c r="D230" s="72" t="s">
@@ -18617,14 +18612,14 @@
         <f aca="false">IF(F230&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H230" s="76"/>
+      <c r="H230" s="75"/>
       <c r="I230" s="10"/>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="74" t="n">
         <v>225</v>
       </c>
-      <c r="C231" s="75" t="s">
+      <c r="C231" s="72" t="s">
         <v>578</v>
       </c>
       <c r="D231" s="72" t="s">
@@ -18640,14 +18635,14 @@
         <f aca="false">IF(F231&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H231" s="76"/>
+      <c r="H231" s="75"/>
       <c r="I231" s="10"/>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="74" t="n">
         <v>226</v>
       </c>
-      <c r="C232" s="75" t="s">
+      <c r="C232" s="72" t="s">
         <v>579</v>
       </c>
       <c r="D232" s="72" t="s">
@@ -18663,14 +18658,14 @@
         <f aca="false">IF(F232&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H232" s="76"/>
+      <c r="H232" s="75"/>
       <c r="I232" s="10"/>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="74" t="n">
         <v>227</v>
       </c>
-      <c r="C233" s="75" t="s">
+      <c r="C233" s="72" t="s">
         <v>581</v>
       </c>
       <c r="D233" s="72" t="s">
@@ -18686,14 +18681,14 @@
         <f aca="false">IF(F233&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H233" s="76"/>
+      <c r="H233" s="75"/>
       <c r="I233" s="10"/>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="74" t="n">
         <v>228</v>
       </c>
-      <c r="C234" s="75" t="s">
+      <c r="C234" s="72" t="s">
         <v>582</v>
       </c>
       <c r="D234" s="72" t="s">
@@ -18709,14 +18704,14 @@
         <f aca="false">IF(F234&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H234" s="76"/>
+      <c r="H234" s="75"/>
       <c r="I234" s="10"/>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="74" t="n">
         <v>229</v>
       </c>
-      <c r="C235" s="75" t="s">
+      <c r="C235" s="72" t="s">
         <v>583</v>
       </c>
       <c r="D235" s="72" t="s">
@@ -18732,14 +18727,14 @@
         <f aca="false">IF(F235&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H235" s="76"/>
+      <c r="H235" s="75"/>
       <c r="I235" s="10"/>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="74" t="n">
         <v>230</v>
       </c>
-      <c r="C236" s="75" t="s">
+      <c r="C236" s="72" t="s">
         <v>584</v>
       </c>
       <c r="D236" s="72" t="s">
@@ -18755,14 +18750,14 @@
         <f aca="false">IF(F236&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H236" s="76"/>
+      <c r="H236" s="75"/>
       <c r="I236" s="10"/>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="74" t="n">
         <v>231</v>
       </c>
-      <c r="C237" s="75" t="s">
+      <c r="C237" s="72" t="s">
         <v>585</v>
       </c>
       <c r="D237" s="72" t="s">
@@ -18778,14 +18773,14 @@
         <f aca="false">IF(F237&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H237" s="76"/>
+      <c r="H237" s="75"/>
       <c r="I237" s="10"/>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="74" t="n">
         <v>232</v>
       </c>
-      <c r="C238" s="75" t="s">
+      <c r="C238" s="72" t="s">
         <v>586</v>
       </c>
       <c r="D238" s="72" t="s">
@@ -18801,14 +18796,14 @@
         <f aca="false">IF(F238&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H238" s="76"/>
+      <c r="H238" s="75"/>
       <c r="I238" s="10"/>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="74" t="n">
         <v>233</v>
       </c>
-      <c r="C239" s="75" t="s">
+      <c r="C239" s="72" t="s">
         <v>587</v>
       </c>
       <c r="D239" s="72" t="s">
@@ -18824,14 +18819,14 @@
         <f aca="false">IF(F239&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H239" s="76"/>
+      <c r="H239" s="75"/>
       <c r="I239" s="10"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="74" t="n">
         <v>234</v>
       </c>
-      <c r="C240" s="75" t="s">
+      <c r="C240" s="72" t="s">
         <v>588</v>
       </c>
       <c r="D240" s="72" t="s">
@@ -18847,14 +18842,14 @@
         <f aca="false">IF(F240&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H240" s="76"/>
+      <c r="H240" s="75"/>
       <c r="I240" s="10"/>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="74" t="n">
         <v>235</v>
       </c>
-      <c r="C241" s="75" t="s">
+      <c r="C241" s="72" t="s">
         <v>589</v>
       </c>
       <c r="D241" s="72" t="s">
@@ -18870,14 +18865,14 @@
         <f aca="false">IF(F241&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H241" s="76"/>
+      <c r="H241" s="75"/>
       <c r="I241" s="10"/>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="74" t="n">
         <v>236</v>
       </c>
-      <c r="C242" s="75" t="s">
+      <c r="C242" s="72" t="s">
         <v>590</v>
       </c>
       <c r="D242" s="72" t="s">
@@ -18893,14 +18888,14 @@
         <f aca="false">IF(F242&gt;=1000000,"LUNAS","")</f>
         <v>LUNAS</v>
       </c>
-      <c r="H242" s="76"/>
+      <c r="H242" s="75"/>
       <c r="I242" s="10"/>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="74" t="n">
         <v>237</v>
       </c>
-      <c r="C243" s="75" t="s">
+      <c r="C243" s="72" t="s">
         <v>591</v>
       </c>
       <c r="D243" s="72" t="s">
@@ -18916,14 +18911,14 @@
         <f aca="false">IF(F243&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H243" s="76"/>
+      <c r="H243" s="75"/>
       <c r="I243" s="10"/>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="74" t="n">
         <v>238</v>
       </c>
-      <c r="C244" s="75" t="s">
+      <c r="C244" s="72" t="s">
         <v>592</v>
       </c>
       <c r="D244" s="72" t="s">
@@ -18939,14 +18934,14 @@
         <f aca="false">IF(F244&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H244" s="76"/>
+      <c r="H244" s="75"/>
       <c r="I244" s="10"/>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="74" t="n">
         <v>239</v>
       </c>
-      <c r="C245" s="75" t="s">
+      <c r="C245" s="72" t="s">
         <v>593</v>
       </c>
       <c r="D245" s="72" t="s">
@@ -18962,14 +18957,14 @@
         <f aca="false">IF(F245&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H245" s="76"/>
+      <c r="H245" s="75"/>
       <c r="I245" s="10"/>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="74" t="n">
         <v>240</v>
       </c>
-      <c r="C246" s="75" t="s">
+      <c r="C246" s="72" t="s">
         <v>594</v>
       </c>
       <c r="D246" s="72" t="s">
@@ -18985,14 +18980,14 @@
         <f aca="false">IF(F246&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H246" s="76"/>
+      <c r="H246" s="75"/>
       <c r="I246" s="10"/>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="74" t="n">
         <v>241</v>
       </c>
-      <c r="C247" s="75" t="s">
+      <c r="C247" s="72" t="s">
         <v>595</v>
       </c>
       <c r="D247" s="72" t="s">
@@ -19008,14 +19003,14 @@
         <f aca="false">IF(F247&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H247" s="76"/>
+      <c r="H247" s="75"/>
       <c r="I247" s="10"/>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="74" t="n">
         <v>242</v>
       </c>
-      <c r="C248" s="75" t="s">
+      <c r="C248" s="72" t="s">
         <v>597</v>
       </c>
       <c r="D248" s="72" t="s">
@@ -19031,14 +19026,14 @@
         <f aca="false">IF(F248&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H248" s="76"/>
+      <c r="H248" s="75"/>
       <c r="I248" s="10"/>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="74" t="n">
         <v>243</v>
       </c>
-      <c r="C249" s="75" t="s">
+      <c r="C249" s="72" t="s">
         <v>598</v>
       </c>
       <c r="D249" s="72" t="s">
@@ -19054,17 +19049,17 @@
         <f aca="false">IF(F249&gt;=1000000,"LUNAS","")</f>
         <v/>
       </c>
-      <c r="H249" s="76"/>
+      <c r="H249" s="75"/>
       <c r="I249" s="10"/>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="10"/>
-      <c r="C250" s="75" t="s">
+      <c r="C250" s="72" t="s">
         <v>599</v>
       </c>
       <c r="D250" s="10"/>
       <c r="E250" s="10"/>
-      <c r="F250" s="77" t="n">
+      <c r="F250" s="76" t="n">
         <v>5000000</v>
       </c>
       <c r="G250" s="10" t="str">
@@ -19077,22 +19072,22 @@
       <c r="I250" s="10"/>
     </row>
     <row r="251" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B251" s="78" t="s">
+      <c r="B251" s="77" t="s">
         <v>601</v>
       </c>
-      <c r="C251" s="78"/>
-      <c r="D251" s="78"/>
-      <c r="E251" s="78"/>
-      <c r="F251" s="79" t="n">
+      <c r="C251" s="77"/>
+      <c r="D251" s="77"/>
+      <c r="E251" s="77"/>
+      <c r="F251" s="78" t="n">
         <f aca="false">SUM(F7:F250)</f>
-        <v>64190000</v>
+        <v>64090000</v>
       </c>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F253" s="80"/>
+      <c r="F253" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -19123,7 +19118,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="81" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="80" width="11.53"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
